--- a/xlsx/多元文化_intext.xlsx
+++ b/xlsx/多元文化_intext.xlsx
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%9A%E8%89%B2</t>
   </si>
   <si>
-    <t>膚色</t>
+    <t>肤色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>衝突</t>
+    <t>冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD</t>
   </si>
   <si>
-    <t>競爭</t>
+    <t>竞争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E6%87%89</t>
   </si>
   <si>
-    <t>順應</t>
+    <t>顺应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E7%BE%A4</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>歧視</t>
+    <t>歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
